--- a/data-raw/courses.xlsx
+++ b/data-raw/courses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/robast_oslomet_no/Documents/Forskning/TEPS_course_content_harvest/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rucin\OneDrive\Pulpit\AME\TEPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC1048F7199E6F1A5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E3BF7DE-6A3E-442B-A132-F48DD4D60895}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092FB22C-1B7B-4FF6-B82D-DF079869F534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>institution_short</t>
   </si>
@@ -48,61 +48,109 @@
     <t>MGVM4100</t>
   </si>
   <si>
-    <t>høst</t>
-  </si>
-  <si>
     <t>NO-155</t>
   </si>
   <si>
-    <t xml:space="preserve">Vår </t>
-  </si>
-  <si>
-    <t>NTNU</t>
-  </si>
-  <si>
-    <t>INN</t>
-  </si>
-  <si>
-    <t>HiVolda</t>
-  </si>
-  <si>
-    <t>HiOF</t>
-  </si>
-  <si>
-    <t>HVL</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>NLA</t>
-  </si>
-  <si>
-    <t>Nord</t>
-  </si>
-  <si>
-    <t>NIH</t>
-  </si>
-  <si>
-    <t>Samas</t>
-  </si>
-  <si>
-    <t>Steiner</t>
-  </si>
-  <si>
-    <t>UiB</t>
-  </si>
-  <si>
-    <t>UiO</t>
-  </si>
-  <si>
-    <t>UiS</t>
-  </si>
-  <si>
-    <t>USN</t>
-  </si>
-  <si>
-    <t>UiT</t>
+    <t>2ML302</t>
+  </si>
+  <si>
+    <t>MGL5-10VF</t>
+  </si>
+  <si>
+    <t>LMUVIT40420</t>
+  </si>
+  <si>
+    <t>MGBPE101</t>
+  </si>
+  <si>
+    <t>PPU1015</t>
+  </si>
+  <si>
+    <t>4MGL1VIT301</t>
+  </si>
+  <si>
+    <t>PEL1007</t>
+  </si>
+  <si>
+    <t>LKI100</t>
+  </si>
+  <si>
+    <t>M-PEL2.1</t>
+  </si>
+  <si>
+    <t>PEDA131</t>
+  </si>
+  <si>
+    <t>PROF1015</t>
+  </si>
+  <si>
+    <t>MGL1200</t>
+  </si>
+  <si>
+    <t>LER-3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var </t>
+  </si>
+  <si>
+    <t>ntnu</t>
+  </si>
+  <si>
+    <t>inn</t>
+  </si>
+  <si>
+    <t>PPU4602</t>
+  </si>
+  <si>
+    <t>hivolda</t>
+  </si>
+  <si>
+    <t>hiof</t>
+  </si>
+  <si>
+    <t>hvl</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>nla</t>
+  </si>
+  <si>
+    <t>nord</t>
+  </si>
+  <si>
+    <t>nih</t>
+  </si>
+  <si>
+    <t>steiner</t>
+  </si>
+  <si>
+    <t>samas</t>
+  </si>
+  <si>
+    <t>uib</t>
+  </si>
+  <si>
+    <t>uio</t>
+  </si>
+  <si>
+    <t>uis</t>
+  </si>
+  <si>
+    <t>usn</t>
+  </si>
+  <si>
+    <t>uit</t>
+  </si>
+  <si>
+    <t>MG1PE1_1</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>var</t>
   </si>
 </sst>
 </file>
@@ -423,16 +471,16 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -454,104 +502,239 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2026</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>2025</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>2024</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C5">
+        <v>2025</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6">
+        <v>2025</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C7">
+        <v>2026</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C8">
+        <v>2025</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C9">
+        <v>2025</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C10">
+        <v>2025</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C11">
+        <v>2025</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C12">
+        <v>2025</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C14">
+        <v>2025</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C15">
+        <v>2025</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C16">
+        <v>2025</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C17">
+        <v>2026</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>2025</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
+      <c r="C19">
+        <v>2025</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/courses.xlsx
+++ b/data-raw/courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/robast_oslomet_no/Documents/Forskning/TEPS_course_content_harvest/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC1048F7199E6F1A5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E3BF7DE-6A3E-442B-A132-F48DD4D60895}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC1048F7199E6F1A5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8472394-D514-4070-8E4B-AE411506C828}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>institution_short</t>
   </si>
@@ -54,9 +54,6 @@
     <t>NO-155</t>
   </si>
   <si>
-    <t xml:space="preserve">Vår </t>
-  </si>
-  <si>
     <t>NTNU</t>
   </si>
   <si>
@@ -103,6 +100,57 @@
   </si>
   <si>
     <t>UiT</t>
+  </si>
+  <si>
+    <t>M1GMT1200</t>
+  </si>
+  <si>
+    <t>vår</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://student.oslomet.no/studier/-/studieinfo/emne/MGVM4100/2022/H%C3%98ST</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>rvest</t>
+  </si>
+  <si>
+    <t>tidyverse</t>
+  </si>
+  <si>
+    <t>fulltext</t>
+  </si>
+  <si>
+    <t>1. create a url</t>
+  </si>
+  <si>
+    <t>2. get the html</t>
+  </si>
+  <si>
+    <t>3. find the correct html-tag</t>
+  </si>
+  <si>
+    <t>4. copy it to fulltext and remove excess whitespace, etc.</t>
+  </si>
+  <si>
+    <t>5. do this for all 18 teacher education institutions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dplyr, stringr, </t>
+  </si>
+  <si>
+    <t>package for reading html</t>
+  </si>
+  <si>
+    <t>course_requirements</t>
+  </si>
+  <si>
+    <t>exam_type</t>
   </si>
 </sst>
 </file>
@@ -420,19 +468,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +494,23 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -459,99 +523,143 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>2025</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>2024</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
